--- a/nds-client/src/main/webapp/modelos/modelo_mix.xlsx
+++ b/nds-client/src/main/webapp/modelos/modelo_mix.xlsx
@@ -24,7 +24,7 @@
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
-            <rFont val="Helvetica"/>
+            <rFont val="Helvetica Neue"/>
           </rPr>
           <t>William Fernando Balan Machado:
 Código PRODIN ou ICD.</t>
@@ -37,7 +37,7 @@
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
-            <rFont val="Helvetica"/>
+            <rFont val="Helvetica Neue"/>
           </rPr>
           <t>William Fernando Balan Machado:
 Somente maíusculas.</t>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>codigoProduto</t>
   </si>
@@ -66,16 +66,10 @@
     <t>reparteMaximo</t>
   </si>
   <si>
-    <t>segmento</t>
-  </si>
-  <si>
     <t>00000002</t>
   </si>
   <si>
     <t>NORMAL</t>
-  </si>
-  <si>
-    <t>NEGOCIOS/ECONOMIA/POLITICA</t>
   </si>
 </sst>
 </file>
@@ -94,7 +88,7 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="14"/>
@@ -104,7 +98,7 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Helvetica"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="3">
@@ -150,7 +144,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -167,9 +161,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -246,14 +237,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Helvetica"/>
-        <a:ea typeface="Helvetica"/>
-        <a:cs typeface="Helvetica"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica"/>
-        <a:ea typeface="Helvetica"/>
-        <a:cs typeface="Helvetica"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -335,13 +326,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -431,19 +416,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -698,13 +683,7 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1008,19 +987,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1271,7 +1250,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1282,8 +1261,7 @@
     <col min="3" max="3" width="11.8516" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.3516" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.6719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5" style="1" customWidth="1"/>
-    <col min="7" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="6" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -1302,19 +1280,16 @@
       <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="2">
+      <c r="B2" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>7</v>
-      </c>
       <c r="C2" s="3">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3">
         <v>50</v>
@@ -1322,9 +1297,6 @@
       <c r="E2" s="3">
         <v>50</v>
       </c>
-      <c r="F2" t="s" s="2">
-        <v>8</v>
-      </c>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" s="2"/>
@@ -1332,69 +1304,26 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="2"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="2"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811" right="0.511811" top="0.787402" bottom="0.787402" header="0.314961" footer="0.314961"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1418,80 +1347,80 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811" right="0.511811" top="0.787402" bottom="0.787402" header="0.314961" footer="0.314961"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1504,89 +1433,89 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="7" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="7" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="7" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="7" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.85156" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.85156" style="6" customWidth="1"/>
+    <col min="4" max="4" width="8.85156" style="6" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="6" customWidth="1"/>
+    <col min="6" max="256" width="8.85156" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811" right="0.511811" top="0.787402" bottom="0.787402" header="0.314961" footer="0.314961"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>